--- a/model/内存统计.xlsx
+++ b/model/内存统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E1212-0D26-44F3-8617-4ED228FD49C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE220269-B5F4-4CC0-A3F6-A56C80D38C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">params </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xbars (ISSAC FORMS PUMA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RRAM Chips  (168 Tiles per Chip)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nnUnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RRAM Tiles (12 PEs per Tile)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +91,18 @@
   </si>
   <si>
     <t>INT16 Mems (MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnUnet(old)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRAM INT16 Mems (MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xbars (ISSAC FORMS PUMA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,9 +110,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -155,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +187,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,51 +478,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>61100840</v>
@@ -518,25 +536,28 @@
         <v>116.54060363769531</v>
       </c>
       <c r="D2" s="7">
-        <f>B2*8/(128 * 127)</f>
-        <v>30069.311023622045</v>
-      </c>
-      <c r="E2" s="7">
-        <f>D2/8</f>
-        <v>3758.6638779527557</v>
+        <f>E2*128*128*2/(1024*1024*8)</f>
+        <v>117.46875</v>
+      </c>
+      <c r="E2" s="11">
+        <v>30072</v>
       </c>
       <c r="F2" s="7">
-        <f>E2/12</f>
-        <v>313.22198982939631</v>
+        <f>E2/8</f>
+        <v>3759</v>
       </c>
       <c r="G2" s="7">
-        <f>F2/168</f>
-        <v>1.864416606127359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <f>F2/12</f>
+        <v>313.25</v>
+      </c>
+      <c r="H2" s="7">
+        <f>G2/168</f>
+        <v>1.8645833333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>138365992</v>
@@ -546,25 +567,28 @@
         <v>263.91218566894531</v>
       </c>
       <c r="D3" s="7">
-        <f>B3*8/(128 * 127)</f>
-        <v>68093.5</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E11" si="0">D3/8</f>
-        <v>8511.6875</v>
+        <f t="shared" ref="D3:D11" si="0">E3*128*128*2/(1024*1024*8)</f>
+        <v>265.75</v>
+      </c>
+      <c r="E3" s="11">
+        <v>68032</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F11" si="1">E3/12</f>
-        <v>709.30729166666663</v>
+        <f t="shared" ref="F3:F11" si="1">E3/8</f>
+        <v>8504</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G11" si="2">F3/168</f>
-        <v>4.222067212301587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G11" si="2">F3/12</f>
+        <v>708.66666666666663</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H11" si="3">G3/168</f>
+        <v>4.2182539682539684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>143678248</v>
@@ -574,53 +598,58 @@
         <v>274.04450988769531</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D11" si="3">B4*8/(128 * 127)</f>
-        <v>70707.799212598431</v>
-      </c>
-      <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>8838.4749015748039</v>
+        <v>275.875</v>
+      </c>
+      <c r="E4" s="11">
+        <v>70624</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="1"/>
-        <v>736.53957513123362</v>
+        <v>8828</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="2"/>
-        <v>4.3841641376859144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>735.66666666666663</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="3"/>
+        <v>4.378968253968254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>11689512</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:C11" si="4">B5*2/(1024 * 1024)</f>
+        <f t="shared" ref="C5:D11" si="4">B5*2/(1024 * 1024)</f>
         <v>22.295974731445313</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="3"/>
-        <v>5752.712598425197</v>
-      </c>
-      <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>719.08907480314963</v>
+        <v>22.359375</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5724</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>59.924089566929133</v>
+        <v>715.5</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>0.35669100932695913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59.625</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>21797672</v>
@@ -630,25 +659,28 @@
         <v>41.575759887695313</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="3"/>
-        <v>10727.200787401574</v>
-      </c>
-      <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>1340.9000984251968</v>
+        <v>41.640625</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10660</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>111.7416748687664</v>
+        <v>1332.5</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>0.66512901707599048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111.04166666666667</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.66096230158730163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>25557032</v>
@@ -658,25 +690,28 @@
         <v>48.746170043945313</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="3"/>
-        <v>12577.279527559054</v>
-      </c>
-      <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>1572.1599409448818</v>
+        <v>48.984375</v>
+      </c>
+      <c r="E7" s="11">
+        <v>12540</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>131.01332841207349</v>
+        <v>1567.5</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>0.77984124054805648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130.625</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.77752976190476186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>60192808</v>
@@ -686,25 +721,28 @@
         <v>114.80867004394531</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="3"/>
-        <v>29622.444881889765</v>
-      </c>
-      <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>3702.8056102362207</v>
+        <v>115.09375</v>
+      </c>
+      <c r="E8" s="11">
+        <v>29464</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>308.56713418635172</v>
+        <v>3683</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>1.8367091320616173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306.91666666666669</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8268849206349207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>3504872</v>
@@ -714,25 +752,28 @@
         <v>6.6850128173828125</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="3"/>
-        <v>1724.8385826771653</v>
-      </c>
-      <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>215.60482283464566</v>
+        <v>86.015625</v>
+      </c>
+      <c r="E9" s="11">
+        <v>22020</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>17.967068569553806</v>
+        <v>2752.5</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>0.10694683672353456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229.375</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3653273809523809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>2278604</v>
@@ -742,25 +783,28 @@
         <v>4.3460922241210938</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="3"/>
-        <v>1121.3602362204724</v>
-      </c>
-      <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>140.17002952755905</v>
+        <v>12.17578125</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3117</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>11.680835793963254</v>
+        <v>389.625</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>6.9528784487876513E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32.46875</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.19326636904761904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>7765442</v>
@@ -770,19 +814,23 @@
         <v>14.811405181884766</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
+        <v>14.928030419537402</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ref="E11" si="5">B11*8/(128 * 127)</f>
         <v>3821.5757874015749</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>477.69697342519686</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>39.808081118766403</v>
+        <v>477.69697342519686</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
+        <v>39.808081118766403</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="3"/>
         <v>0.23695286380218097</v>
       </c>
     </row>

--- a/model/内存统计.xlsx
+++ b/model/内存统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE220269-B5F4-4CC0-A3F6-A56C80D38C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F8532-C862-4739-BD96-92B8F789808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,6 +215,946 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRAM Chips  (168 Tiles per Chip)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>alexnet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vgg16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vgg19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>resnet18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>resnet34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>resnet50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>resnet152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet_v2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>shufflenet_v2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nnUnet(old)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2182539682539684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.378968253968254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66096230158730163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77752976190476186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8268849206349207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3653273809523809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19326636904761904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23695286380218097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E88-4509-92A0-0993E75A43B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="193547983"/>
+        <c:axId val="2057647327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193547983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057647327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057647327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193547983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mn-ea"/>
+          <a:ea typeface="+mn-ea"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206124</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171958</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5300F6CB-8F80-428D-996E-3123CE761881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -480,13 +1420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
@@ -625,7 +1565,7 @@
         <v>11689512</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:D11" si="4">B5*2/(1024 * 1024)</f>
+        <f t="shared" ref="C5:C11" si="4">B5*2/(1024 * 1024)</f>
         <v>22.295974731445313</v>
       </c>
       <c r="D5" s="7">
@@ -838,5 +1778,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>